--- a/data/GestureData/Swimming_V01_Christian_labels.xlsx
+++ b/data/GestureData/Swimming_V01_Christian_labels.xlsx
@@ -19,7 +19,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5" uniqueCount="5">
   <si>
     <t>real start</t>
   </si>
@@ -31,6 +31,9 @@
   </si>
   <si>
     <t xml:space="preserve"> round end</t>
+  </si>
+  <si>
+    <t>label</t>
   </si>
 </sst>
 </file>
@@ -400,15 +403,15 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D18"/>
+  <dimension ref="A1:E18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E20" sqref="E20"/>
+      <selection activeCell="F4" sqref="F4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:5">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -421,8 +424,11 @@
       <c r="D1" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="2" spans="1:4">
+      <c r="E1" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5">
       <c r="A2">
         <v>1.63</v>
       </c>
@@ -437,8 +443,11 @@
         <f>MROUND(B2,0.05)</f>
         <v>3.95</v>
       </c>
-    </row>
-    <row r="3" spans="1:4">
+      <c r="E2">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5">
       <c r="A3">
         <v>5.49</v>
       </c>
@@ -446,15 +455,18 @@
         <v>7.62</v>
       </c>
       <c r="C3">
-        <f t="shared" ref="C3:C4" si="0">MROUND(A3,0.05)</f>
+        <f>MROUND(A3,0.05)</f>
         <v>5.5</v>
       </c>
       <c r="D3">
-        <f t="shared" ref="D3:D4" si="1">MROUND(B3,0.05)</f>
+        <f t="shared" ref="D3:D4" si="0">MROUND(B3,0.05)</f>
         <v>7.6000000000000005</v>
       </c>
-    </row>
-    <row r="4" spans="1:4">
+      <c r="E3">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5">
       <c r="A4">
         <v>9.5500000000000007</v>
       </c>
@@ -462,15 +474,18 @@
         <v>11.75</v>
       </c>
       <c r="C4">
+        <f>MROUND(A4,0.05)</f>
+        <v>9.5500000000000007</v>
+      </c>
+      <c r="D4">
         <f t="shared" si="0"/>
-        <v>9.5500000000000007</v>
-      </c>
-      <c r="D4">
-        <f t="shared" si="1"/>
         <v>11.75</v>
       </c>
-    </row>
-    <row r="5" spans="1:4">
+      <c r="E4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5">
       <c r="A5">
         <v>13.52</v>
       </c>
@@ -482,11 +497,14 @@
         <v>13.5</v>
       </c>
       <c r="D5">
-        <f>MROUND(B5,0.05)</f>
+        <f t="shared" ref="D5:D18" si="1">MROUND(B5,0.05)</f>
         <v>15.8</v>
       </c>
-    </row>
-    <row r="6" spans="1:4">
+      <c r="E5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5">
       <c r="A6">
         <v>17.55</v>
       </c>
@@ -498,11 +516,14 @@
         <v>17.55</v>
       </c>
       <c r="D6">
-        <f>MROUND(B6,0.05)</f>
+        <f t="shared" si="1"/>
         <v>19.75</v>
       </c>
-    </row>
-    <row r="7" spans="1:4">
+      <c r="E6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5">
       <c r="A7">
         <v>21.58</v>
       </c>
@@ -514,11 +535,14 @@
         <v>21.6</v>
       </c>
       <c r="D7">
-        <f>MROUND(B7,0.05)</f>
+        <f t="shared" si="1"/>
         <v>23.8</v>
       </c>
-    </row>
-    <row r="8" spans="1:4">
+      <c r="E7">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5">
       <c r="A8">
         <v>25.64</v>
       </c>
@@ -530,11 +554,14 @@
         <v>25.650000000000002</v>
       </c>
       <c r="D8">
-        <f>MROUND(B8,0.05)</f>
+        <f t="shared" si="1"/>
         <v>27.75</v>
       </c>
-    </row>
-    <row r="9" spans="1:4">
+      <c r="E8">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5">
       <c r="A9">
         <v>29.64</v>
       </c>
@@ -546,11 +573,14 @@
         <v>29.650000000000002</v>
       </c>
       <c r="D9">
-        <f>MROUND(B9,0.05)</f>
+        <f t="shared" si="1"/>
         <v>31.8</v>
       </c>
-    </row>
-    <row r="10" spans="1:4">
+      <c r="E9">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5">
       <c r="A10">
         <v>33.67</v>
       </c>
@@ -562,11 +592,14 @@
         <v>33.65</v>
       </c>
       <c r="D10">
-        <f>MROUND(B10,0.05)</f>
+        <f t="shared" si="1"/>
         <v>35.9</v>
       </c>
-    </row>
-    <row r="11" spans="1:4">
+      <c r="E10">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5">
       <c r="A11">
         <v>37.630000000000003</v>
       </c>
@@ -578,11 +611,14 @@
         <v>37.65</v>
       </c>
       <c r="D11">
-        <f>MROUND(B11,0.05)</f>
+        <f t="shared" si="1"/>
         <v>39.900000000000006</v>
       </c>
-    </row>
-    <row r="12" spans="1:4">
+      <c r="E11">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5">
       <c r="A12">
         <v>41.5</v>
       </c>
@@ -594,11 +630,14 @@
         <v>41.5</v>
       </c>
       <c r="D12">
-        <f>MROUND(B12,0.05)</f>
+        <f t="shared" si="1"/>
         <v>43.75</v>
       </c>
-    </row>
-    <row r="13" spans="1:4">
+      <c r="E12">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13" spans="1:5">
       <c r="A13">
         <v>45.4</v>
       </c>
@@ -610,11 +649,14 @@
         <v>45.400000000000006</v>
       </c>
       <c r="D13">
-        <f>MROUND(B13,0.05)</f>
+        <f t="shared" si="1"/>
         <v>47.800000000000004</v>
       </c>
-    </row>
-    <row r="14" spans="1:4">
+      <c r="E13">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5">
       <c r="A14">
         <v>49.3</v>
       </c>
@@ -626,11 +668,14 @@
         <v>49.300000000000004</v>
       </c>
       <c r="D14">
-        <f>MROUND(B14,0.05)</f>
+        <f t="shared" si="1"/>
         <v>51.75</v>
       </c>
-    </row>
-    <row r="15" spans="1:4">
+      <c r="E14">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5">
       <c r="A15">
         <v>53.6</v>
       </c>
@@ -642,11 +687,14 @@
         <v>53.6</v>
       </c>
       <c r="D15">
-        <f>MROUND(B15,0.05)</f>
+        <f t="shared" si="1"/>
         <v>56.1</v>
       </c>
-    </row>
-    <row r="16" spans="1:4">
+      <c r="E15">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5">
       <c r="A16">
         <v>58.6</v>
       </c>
@@ -658,11 +706,14 @@
         <v>58.6</v>
       </c>
       <c r="D16">
-        <f>MROUND(B16,0.05)</f>
+        <f t="shared" si="1"/>
         <v>60.900000000000006</v>
       </c>
-    </row>
-    <row r="17" spans="1:4">
+      <c r="E16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:5">
       <c r="A17">
         <v>62.7</v>
       </c>
@@ -674,11 +725,14 @@
         <v>62.7</v>
       </c>
       <c r="D17">
-        <f>MROUND(B17,0.05)</f>
+        <f t="shared" si="1"/>
         <v>65.150000000000006</v>
       </c>
-    </row>
-    <row r="18" spans="1:4">
+      <c r="E17">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="18" spans="1:5">
       <c r="A18">
         <v>67.75</v>
       </c>
@@ -690,8 +744,11 @@
         <v>67.75</v>
       </c>
       <c r="D18">
-        <f>MROUND(B18,0.05)</f>
+        <f t="shared" si="1"/>
         <v>69.95</v>
+      </c>
+      <c r="E18">
+        <v>2</v>
       </c>
     </row>
   </sheetData>
